--- a/psychopyExperiments/oddball-task-master/aud_conditions3.xlsx
+++ b/psychopyExperiments/oddball-task-master/aud_conditions3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elpid\Downloads\thesis\ThesisRepository\psychopyExperiments\oddball-task-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BC18A6-54C4-4350-84F9-92AD9E0D16FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E1572-5833-4634-BAE2-566DA8267257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="3735" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,13 +48,13 @@
     <t>file</t>
   </si>
   <si>
+    <t>soundFiles/1000Hz_-3dBFS_3s_44.1kHz.wav'</t>
+  </si>
+  <si>
     <t>soundFiles/1200Hz_-3dBFS_3s_44.1kHz.wav'</t>
   </si>
   <si>
     <t>None</t>
-  </si>
-  <si>
-    <t>soundFiles/250Hz_44100Hz_16bit_05sec.wav'</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,13 +404,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -418,13 +418,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -432,13 +432,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
       <c r="D4">
-        <v>250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -446,13 +446,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>1200</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/psychopyExperiments/oddball-task-master/aud_conditions3.xlsx
+++ b/psychopyExperiments/oddball-task-master/aud_conditions3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elpid\Downloads\thesis\ThesisRepository\psychopyExperiments\oddball-task-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E1572-5833-4634-BAE2-566DA8267257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA3F0C9-6726-4ADD-A2C5-007A991094F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +410,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -424,7 +424,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/psychopyExperiments/oddball-task-master/aud_conditions3.xlsx
+++ b/psychopyExperiments/oddball-task-master/aud_conditions3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elpid\Downloads\thesis\ThesisRepository\psychopyExperiments\oddball-task-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA3F0C9-6726-4ADD-A2C5-007A991094F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3B9BCD-79B8-4181-8CEF-CF91797A2C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +410,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -424,7 +424,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -438,7 +438,7 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
